--- a/Assets/Game/Editor/XLS/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS/UIWindowSetting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>是否是引导窗口</t>
+  </si>
+  <si>
+    <t>LobbyWindow</t>
+  </si>
+  <si>
+    <t>MessageBoxWindow</t>
+  </si>
+  <si>
+    <t>GuideWindow</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -138,12 +147,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +193,7 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -198,13 +201,13 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -698,6 +701,138 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>-521227080</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1625153888</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1392412074</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>-104138007</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1299702156</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>300</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>-1292752314</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1287614635</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-2023891807</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3 A4:A65466">

--- a/Assets/Game/Editor/XLS/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS/UIWindowSetting.xlsx
@@ -27,12 +27,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>fileId</t>
+  </si>
+  <si>
     <t>folderId</t>
   </si>
   <si>
-    <t>fileId</t>
-  </si>
-  <si>
     <t>renderMode</t>
   </si>
   <si>
@@ -78,10 +78,10 @@
     <t>窗口名称</t>
   </si>
   <si>
+    <t>文件id</t>
+  </si>
+  <si>
     <t>文件夹id</t>
-  </si>
-  <si>
-    <t>文件id</t>
   </si>
   <si>
     <t>画布绘制模式</t>
@@ -227,30 +227,7 @@
     <cellStyle name="差" xfId="0" builtinId="27"/>
     <cellStyle name="常规" xfId="1" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -548,15 +525,15 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1" style="3"/>
     <col min="2" max="2" bestFit="1" width="11.375" customWidth="1" style="3"/>
-    <col min="3" max="3" bestFit="1" width="13" customWidth="1" style="3"/>
-    <col min="4" max="4" bestFit="1" width="10" customWidth="1" style="3"/>
+    <col min="3" max="3" bestFit="1" width="10" customWidth="1" style="3"/>
+    <col min="4" max="4" bestFit="1" width="13" customWidth="1" style="3"/>
     <col min="5" max="5" bestFit="1" width="16.625" customWidth="1" style="3"/>
     <col min="6" max="6" bestFit="1" width="13" customWidth="1" style="3"/>
     <col min="7" max="7" bestFit="1" width="16.625" customWidth="1" style="3"/>
@@ -835,7 +812,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD3 A4:A65466">
+  <conditionalFormatting sqref="A4:A65466 A1:XFD3">
     <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>AND(COUNTIF($A$3:$A$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($A$4:$A$65466,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>

--- a/Assets/Game/Editor/XLS/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS/UIWindowSetting.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StrayFogUnity3d\Assets\Game\Editor\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityFramework\StrayFogUnity3d\Assets\Game\Editor\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
@@ -525,25 +525,25 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1" style="3"/>
-    <col min="2" max="2" bestFit="1" width="11.375" customWidth="1" style="3"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1" style="3"/>
+    <col min="2" max="2" bestFit="1" width="11.36328125" customWidth="1" style="3"/>
     <col min="3" max="3" bestFit="1" width="10" customWidth="1" style="3"/>
     <col min="4" max="4" bestFit="1" width="13" customWidth="1" style="3"/>
-    <col min="5" max="5" bestFit="1" width="16.625" customWidth="1" style="3"/>
+    <col min="5" max="5" bestFit="1" width="16.6328125" customWidth="1" style="3"/>
     <col min="6" max="6" bestFit="1" width="13" customWidth="1" style="3"/>
-    <col min="7" max="7" bestFit="1" width="16.625" customWidth="1" style="3"/>
-    <col min="8" max="8" width="17.25" customWidth="1" style="3"/>
-    <col min="9" max="9" bestFit="1" width="32.875" customWidth="1" style="3"/>
-    <col min="10" max="10" bestFit="1" width="46.625" customWidth="1" style="3"/>
-    <col min="11" max="11" bestFit="1" width="34.375" customWidth="1" style="3"/>
-    <col min="12" max="12" bestFit="1" width="28.25" customWidth="1" style="3"/>
-    <col min="13" max="13" bestFit="1" width="40.5" customWidth="1" style="3"/>
-    <col min="14" max="14" bestFit="1" width="20.625" customWidth="1" style="3"/>
+    <col min="7" max="7" bestFit="1" width="16.6328125" customWidth="1" style="3"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1" style="3"/>
+    <col min="9" max="9" bestFit="1" width="32.90625" customWidth="1" style="3"/>
+    <col min="10" max="10" bestFit="1" width="46.6328125" customWidth="1" style="3"/>
+    <col min="11" max="11" bestFit="1" width="34.36328125" customWidth="1" style="3"/>
+    <col min="12" max="12" bestFit="1" width="28.26953125" customWidth="1" style="3"/>
+    <col min="13" max="13" bestFit="1" width="40.453125" customWidth="1" style="3"/>
+    <col min="14" max="14" bestFit="1" width="20.6328125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" s="4" customFormat="1">
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="18.75" s="6" customFormat="1">
+    <row r="3" ht="17.5" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
